--- a/resources/data-definition/CDS/SampleAttributes_DD.xlsx
+++ b/resources/data-definition/CDS/SampleAttributes_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8EE1C4-AC77-B04E-8C16-F9DC2D9BE2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6629C-18EE-B749-AFEF-876661576CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="4600" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>VARNAME</t>
   </si>
@@ -42,12 +42,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>Sample tumor status</t>
-  </si>
-  <si>
-    <t>sample_type_category</t>
-  </si>
-  <si>
     <t>VALUES</t>
   </si>
   <si>
@@ -82,6 +76,9 @@
   </si>
   <si>
     <t>2=No</t>
+  </si>
+  <si>
+    <t>HISTOLOCIGAL_TYPE</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,15 +485,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -504,10 +501,10 @@
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -515,10 +512,10 @@
     </row>
     <row r="4" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -526,30 +523,24 @@
     </row>
     <row r="5" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/resources/data-definition/CDS/SampleAttributes_DD.xlsx
+++ b/resources/data-definition/CDS/SampleAttributes_DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gup2/workspace/vscode/crdcdh/crdc-datahub-backend/resources/data-definition/CDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D6629C-18EE-B749-AFEF-876661576CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54486796-ED25-8540-9B01-9D029D7BCBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6900" yWindow="4600" windowWidth="25800" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>VARNAME</t>
   </si>
@@ -45,27 +45,15 @@
     <t>VALUES</t>
   </si>
   <si>
-    <t>SAMPLE_ID</t>
-  </si>
-  <si>
     <t>A unique sequence of alphanumeric characters used to identify the specimen at it's point of origin.</t>
   </si>
   <si>
-    <t>BODY_SITE</t>
-  </si>
-  <si>
     <t>The location within the body from which a specimen was originally obtained as captured in the Uberon identifier.</t>
   </si>
   <si>
-    <t>ANALYTE_TYPE</t>
-  </si>
-  <si>
     <t>The biospecimen grouping which describes the kind of material that forms the sample.</t>
   </si>
   <si>
-    <t>IS_TUMOR</t>
-  </si>
-  <si>
     <t>The category assigned to the cytologic atypia found in cellular molecules, cells, tissues, organs, body fluids, or body excretory products.</t>
   </si>
   <si>
@@ -78,14 +66,23 @@
     <t>2=No</t>
   </si>
   <si>
-    <t>HISTOLOCIGAL_TYPE</t>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_anatomic_site</t>
+  </si>
+  <si>
+    <t>sample_type_category</t>
+  </si>
+  <si>
+    <t>sample_tumor_status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -115,6 +112,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,10 +139,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -489,59 +492,57 @@
       </c>
     </row>
     <row r="2" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>9</v>
+      <c r="A4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
@@ -551,9 +552,6 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
